--- a/biology/Zoologie/Hadromophryne_natalensis/Hadromophryne_natalensis.xlsx
+++ b/biology/Zoologie/Hadromophryne_natalensis/Hadromophryne_natalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadromophryne natalensis, unique représentant du genre Hadromophryne, est une espèce d'amphibiens de la famille des Heleophrynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadromophryne natalensis, unique représentant du genre Hadromophryne, est une espèce d'amphibiens de la famille des Heleophrynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud dans les provinces du KwaZulu-Natal, de l'État-Libre, du Mpumalanga, du Cap-Oriental, du Limpopo et du Gauteng, au Swaziland et au Lesotho dans la chaîne des Drakensberg et les monts Maloti entre 580 et 2 675 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud dans les provinces du KwaZulu-Natal, de l'État-Libre, du Mpumalanga, du Cap-Oriental, du Limpopo et du Gauteng, au Swaziland et au Lesotho dans la chaîne des Drakensberg et les monts Maloti entre 580 et 2 675 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Hadromophryne natalensis[3] mesure 32 mm mais, s'agissant d'un juvénile, l'espèce pourrait être plus grande.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Hadromophryne natalensis mesure 32 mm mais, s'agissant d'un juvénile, l'espèce pourrait être plus grande.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de natal et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Natal, actuellement nommé KwaZulu-Natal.
 </t>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hewitt, 1913 : Description of Heleophryne natalensis, a new batrachian from Natal; and notes on several South African batrachians and reptiles. Annals of the Natal Museum, vol. 2, no 4, p. 475-484 (texte intégral).
 Van Dijk, 2008 : Clades in Heleophrynid Salientia : short communication. African Journal of Herpetology, vol. 57, no 1, p. 43-48.</t>
